--- a/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A09A7C9-74BA-46D2-98B3-03299AEF8915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99D8549-D3D1-4DA6-9037-AC6A5FD74777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DC924F9-F2F2-4530-AD24-77CB63784F62}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71780B2E-B91B-41C3-A253-546C05771C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,4%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>74,6%</t>
   </si>
   <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
   </si>
   <si>
     <t>70,08%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>7,84%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>83,33%</t>
   </si>
   <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,154 +311,160 @@
     <t>34,72%</t>
   </si>
   <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
   </si>
   <si>
     <t>42,47%</t>
   </si>
   <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
   </si>
   <si>
     <t>57,53%</t>
   </si>
   <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
   </si>
   <si>
     <t>60,8%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>89,82%</t>
   </si>
   <si>
     <t>93,72%</t>
@@ -467,55 +473,55 @@
     <t>16,63%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
@@ -524,199 +530,205 @@
     <t>30,54%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>69,46%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>89,28%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>94,19%</t>
+    <t>94,15%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
@@ -725,169 +737,163 @@
     <t>37,08%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>50,11%</t>
   </si>
   <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>44,98%</t>
   </si>
   <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>62,92%</t>
   </si>
   <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>49,89%</t>
   </si>
   <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
   </si>
   <si>
     <t>55,02%</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>86,48%</t>
   </si>
   <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>17,78%</t>
   </si>
   <si>
     <t>20,61%</t>
@@ -896,16 +902,19 @@
     <t>23,16%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>25,73%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>80,72%</t>
@@ -914,22 +923,25 @@
     <t>79,39%</t>
   </si>
   <si>
-    <t>82,13%</t>
+    <t>82,22%</t>
   </si>
   <si>
     <t>76,84%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>74,27%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD62A32-20C0-4778-A327-98C3963CA7E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B293C2DB-F5B2-4666-8050-E4B9C0B4B365}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1978,7 +1990,7 @@
         <v>2793</v>
       </c>
       <c r="D14" s="7">
-        <v>2861963</v>
+        <v>2861964</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2008,7 +2020,7 @@
         <v>5542</v>
       </c>
       <c r="N14" s="7">
-        <v>5677776</v>
+        <v>5677777</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2029,7 +2041,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2059,7 +2071,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4CF6AA-C10C-475F-95F9-B4920E99ABFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77814879-622B-4252-8911-F101FAC2058E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2556,13 +2568,13 @@
         <v>75579</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2589,13 @@
         <v>434458</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>388</v>
@@ -2592,13 +2604,13 @@
         <v>427949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>786</v>
@@ -2607,13 +2619,13 @@
         <v>862407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2693,13 @@
         <v>568019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>688</v>
@@ -2696,13 +2708,13 @@
         <v>741540</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1205</v>
@@ -2711,13 +2723,13 @@
         <v>1309560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2744,13 @@
         <v>2846978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2596</v>
@@ -2747,13 +2759,13 @@
         <v>2801408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5276</v>
@@ -2762,13 +2774,13 @@
         <v>5648386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B7F1F4-72C8-4F80-AD9C-D73B414176A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A80CD39-9013-46BC-B81E-9E4836CFA733}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2979,13 @@
         <v>230394</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>328</v>
@@ -2982,13 +2994,13 @@
         <v>384045</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>572</v>
@@ -2997,13 +3009,13 @@
         <v>614439</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3030,13 @@
         <v>523953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>564</v>
@@ -3033,13 +3045,13 @@
         <v>610615</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1082</v>
@@ -3048,13 +3060,13 @@
         <v>1134568</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3134,13 @@
         <v>219934</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -3137,13 +3149,13 @@
         <v>213097</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
@@ -3152,13 +3164,13 @@
         <v>433031</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3185,13 @@
         <v>1856451</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1723</v>
@@ -3188,13 +3200,13 @@
         <v>1775203</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3467</v>
@@ -3203,13 +3215,13 @@
         <v>3631654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,10 +3292,10 @@
         <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3292,13 +3304,13 @@
         <v>29926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -3307,13 +3319,13 @@
         <v>81233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,10 +3343,10 @@
         <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>504</v>
@@ -3343,13 +3355,13 @@
         <v>519214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>958</v>
@@ -3358,13 +3370,13 @@
         <v>1014793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3444,13 @@
         <v>501635</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>535</v>
@@ -3447,13 +3459,13 @@
         <v>627068</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>1034</v>
@@ -3462,13 +3474,13 @@
         <v>1128703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3495,13 @@
         <v>2875983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2791</v>
@@ -3498,13 +3510,13 @@
         <v>2905032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>5507</v>
@@ -3513,13 +3525,13 @@
         <v>5781015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01C00CF-4F7D-442E-B5E7-BCBC65C149A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC483630-5B2C-426C-A973-BA196E7A4155}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3730,13 @@
         <v>200449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>749</v>
@@ -3733,13 +3745,13 @@
         <v>416913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>1042</v>
@@ -3748,13 +3760,13 @@
         <v>617361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3781,13 @@
         <v>340114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>675</v>
@@ -3784,13 +3796,13 @@
         <v>415012</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1072</v>
@@ -3799,13 +3811,13 @@
         <v>755127</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,28 +3885,28 @@
         <v>336030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>509</v>
       </c>
       <c r="I7" s="7">
-        <v>388726</v>
+        <v>388725</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>923</v>
@@ -3903,13 +3915,13 @@
         <v>724756</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3936,13 @@
         <v>1825049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>2411</v>
@@ -3939,13 +3951,13 @@
         <v>1860070</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>3988</v>
@@ -3954,13 +3966,13 @@
         <v>3685118</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +3999,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4028,13 +4040,13 @@
         <v>114142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -4043,13 +4055,13 @@
         <v>73303</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>278</v>
@@ -4058,13 +4070,13 @@
         <v>187445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4091,13 @@
         <v>558897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>875</v>
@@ -4094,13 +4106,13 @@
         <v>640583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>1407</v>
@@ -4109,13 +4121,13 @@
         <v>1199481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4195,13 @@
         <v>650621</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>1387</v>
@@ -4198,13 +4210,13 @@
         <v>878941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>2243</v>
@@ -4213,13 +4225,13 @@
         <v>1529562</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4246,13 @@
         <v>2724061</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>3961</v>
@@ -4249,13 +4261,13 @@
         <v>2915665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>6467</v>
@@ -4264,13 +4276,13 @@
         <v>5639726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99D8549-D3D1-4DA6-9037-AC6A5FD74777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D096EC-D1BA-43AA-B361-30322E4F1CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71780B2E-B91B-41C3-A253-546C05771C6B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92293C8A-A7F8-4E18-8CD5-E62FB62A953F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,4%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>74,6%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
   </si>
   <si>
     <t>70,08%</t>
   </si>
   <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>7,84%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>83,33%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,16 +311,16 @@
     <t>34,72%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>42,47%</t>
   </si>
   <si>
-    <t>40,06%</t>
+    <t>39,73%</t>
   </si>
   <si>
     <t>45,18%</t>
@@ -329,19 +329,19 @@
     <t>39,2%</t>
   </si>
   <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>65,28%</t>
   </si>
   <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>57,53%</t>
@@ -350,484 +350,496 @@
     <t>54,82%</t>
   </si>
   <si>
-    <t>59,94%</t>
+    <t>60,27%</t>
   </si>
   <si>
     <t>60,8%</t>
   </si>
   <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>90,62%</t>
   </si>
   <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>91,14%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>16,63%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>83,37%</t>
   </si>
   <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>30,54%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
   </si>
   <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>69,46%</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>89,28%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>94,15%</t>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
   <si>
     <t>83,57%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
   </si>
   <si>
     <t>73,8%</t>
@@ -1353,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B293C2DB-F5B2-4666-8050-E4B9C0B4B365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459351BA-464A-49BA-A21C-0A399FFDD165}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1990,7 +2002,7 @@
         <v>2793</v>
       </c>
       <c r="D14" s="7">
-        <v>2861964</v>
+        <v>2861963</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2041,7 +2053,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77814879-622B-4252-8911-F101FAC2058E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DCC6B8-0CD1-4F28-9CDC-50B2A32B98C3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2705,7 +2717,7 @@
         <v>688</v>
       </c>
       <c r="I13" s="7">
-        <v>741540</v>
+        <v>741541</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>146</v>
@@ -2807,7 +2819,7 @@
         <v>3284</v>
       </c>
       <c r="I15" s="7">
-        <v>3542948</v>
+        <v>3542949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A80CD39-9013-46BC-B81E-9E4836CFA733}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7274B284-F037-47CD-8334-29FF7F0ABCF4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3325,7 +3337,7 @@
         <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,10 +3355,10 @@
         <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>504</v>
@@ -3355,13 +3367,13 @@
         <v>519214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>958</v>
@@ -3370,13 +3382,13 @@
         <v>1014793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3456,13 @@
         <v>501635</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>535</v>
@@ -3459,13 +3471,13 @@
         <v>627068</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>1034</v>
@@ -3474,13 +3486,13 @@
         <v>1128703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3507,13 @@
         <v>2875983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>2791</v>
@@ -3510,13 +3522,13 @@
         <v>2905032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>5507</v>
@@ -3525,13 +3537,13 @@
         <v>5781015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC483630-5B2C-426C-A973-BA196E7A4155}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED3FCB6-01ED-4706-A9E4-7ACE995EF148}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3742,13 @@
         <v>200449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>749</v>
@@ -3745,13 +3757,13 @@
         <v>416913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1042</v>
@@ -3760,13 +3772,13 @@
         <v>617361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3793,13 @@
         <v>340114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>675</v>
@@ -3796,13 +3808,13 @@
         <v>415012</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1072</v>
@@ -3811,13 +3823,13 @@
         <v>755127</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3897,13 @@
         <v>336030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>509</v>
@@ -3900,13 +3912,13 @@
         <v>388725</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>923</v>
@@ -3915,13 +3927,13 @@
         <v>724756</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3948,13 @@
         <v>1825049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>2411</v>
@@ -3951,13 +3963,13 @@
         <v>1860070</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>3988</v>
@@ -3966,13 +3978,13 @@
         <v>3685118</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4052,13 @@
         <v>114142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -4055,13 +4067,13 @@
         <v>73303</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>278</v>
@@ -4070,13 +4082,13 @@
         <v>187445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4103,13 @@
         <v>558897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>875</v>
@@ -4106,13 +4118,13 @@
         <v>640583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>1407</v>
@@ -4121,13 +4133,13 @@
         <v>1199481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4207,13 @@
         <v>650621</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>1387</v>
@@ -4210,13 +4222,13 @@
         <v>878941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>2243</v>
@@ -4225,13 +4237,13 @@
         <v>1529562</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4258,13 @@
         <v>2724061</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>3961</v>
@@ -4261,13 +4273,13 @@
         <v>2915665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>6467</v>
@@ -4276,13 +4288,13 @@
         <v>5639726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25D096EC-D1BA-43AA-B361-30322E4F1CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F943CFF9-62B9-41CA-A9CB-4BFD44C36C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92293C8A-A7F8-4E18-8CD5-E62FB62A953F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6E9E86-9D2E-4964-A187-897575F6CCF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>25,4%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>74,6%</t>
   </si>
   <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
   </si>
   <si>
     <t>70,08%</t>
   </si>
   <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,19 +140,19 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>6,2%</t>
@@ -167,19 +167,19 @@
     <t>93,6%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>93,8%</t>
@@ -197,19 +197,19 @@
     <t>7,84%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>6,93%</t>
@@ -218,31 +218,31 @@
     <t>5,43%</t>
   </si>
   <si>
-    <t>8,84%</t>
+    <t>8,64%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>91,16%</t>
+    <t>91,36%</t>
   </si>
   <si>
     <t>94,57%</t>
@@ -251,268 +251,262 @@
     <t>12,63%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>84,56%</t>
   </si>
   <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>81,18%</t>
@@ -521,7 +515,7 @@
     <t>80,22%</t>
   </si>
   <si>
-    <t>82,11%</t>
+    <t>82,04%</t>
   </si>
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
@@ -530,211 +524,199 @@
     <t>30,54%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>69,46%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>10,59%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>89,41%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>89,28%</t>
   </si>
   <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>94,19%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
@@ -743,169 +725,169 @@
     <t>37,08%</t>
   </si>
   <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
     <t>33,38%</t>
   </si>
   <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>87,41%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
   </si>
   <si>
     <t>89,73%</t>
   </si>
   <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>86,48%</t>
   </si>
   <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>19,28%</t>
   </si>
   <si>
-    <t>17,78%</t>
+    <t>17,87%</t>
   </si>
   <si>
     <t>20,61%</t>
@@ -914,19 +896,16 @@
     <t>23,16%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>25,73%</t>
   </si>
   <si>
     <t>80,72%</t>
@@ -935,25 +914,22 @@
     <t>79,39%</t>
   </si>
   <si>
-    <t>82,22%</t>
+    <t>82,13%</t>
   </si>
   <si>
     <t>76,84%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
+    <t>74,27%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459351BA-464A-49BA-A21C-0A399FFDD165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC843E3-F40D-41A7-BA73-9074B0D1535B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2032,7 +2008,7 @@
         <v>5542</v>
       </c>
       <c r="N14" s="7">
-        <v>5677777</v>
+        <v>5677776</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2083,7 +2059,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DCC6B8-0CD1-4F28-9CDC-50B2A32B98C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3240B3B6-1355-4F28-A579-F8E9B615CB40}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2580,13 +2556,13 @@
         <v>75579</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2577,13 @@
         <v>434458</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>388</v>
@@ -2616,13 +2592,13 @@
         <v>427949</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>786</v>
@@ -2631,13 +2607,13 @@
         <v>862407</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,28 +2681,28 @@
         <v>568019</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>688</v>
       </c>
       <c r="I13" s="7">
-        <v>741541</v>
+        <v>741540</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>1205</v>
@@ -2735,13 +2711,13 @@
         <v>1309560</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2732,13 @@
         <v>2846978</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2596</v>
@@ -2771,13 +2747,13 @@
         <v>2801408</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>5276</v>
@@ -2786,13 +2762,13 @@
         <v>5648386</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2795,7 @@
         <v>3284</v>
       </c>
       <c r="I15" s="7">
-        <v>3542949</v>
+        <v>3542948</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7274B284-F037-47CD-8334-29FF7F0ABCF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F06C34-4E60-4FD7-910A-F9456B50DD08}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2967,13 @@
         <v>230394</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>328</v>
@@ -3006,13 +2982,13 @@
         <v>384045</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>572</v>
@@ -3021,13 +2997,13 @@
         <v>614439</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3018,13 @@
         <v>523953</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>564</v>
@@ -3057,13 +3033,13 @@
         <v>610615</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1082</v>
@@ -3072,13 +3048,13 @@
         <v>1134568</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3122,13 @@
         <v>219934</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -3161,13 +3137,13 @@
         <v>213097</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
@@ -3176,13 +3152,13 @@
         <v>433031</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3173,13 @@
         <v>1856451</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1723</v>
@@ -3212,13 +3188,13 @@
         <v>1775203</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3467</v>
@@ -3227,13 +3203,13 @@
         <v>3631654</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,10 +3280,10 @@
         <v>107</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3316,13 +3292,13 @@
         <v>29926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -3331,13 +3307,13 @@
         <v>81233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,10 +3331,10 @@
         <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>504</v>
@@ -3367,13 +3343,13 @@
         <v>519214</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>958</v>
@@ -3382,13 +3358,13 @@
         <v>1014793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3432,13 @@
         <v>501635</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>535</v>
@@ -3471,13 +3447,13 @@
         <v>627068</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>1034</v>
@@ -3486,13 +3462,13 @@
         <v>1128703</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3483,13 @@
         <v>2875983</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>2791</v>
@@ -3522,13 +3498,13 @@
         <v>2905032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>5507</v>
@@ -3537,13 +3513,13 @@
         <v>5781015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED3FCB6-01ED-4706-A9E4-7ACE995EF148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F561FE16-81CE-4ECB-8264-5CF40BFE6CBB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3611,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3718,13 @@
         <v>200449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>749</v>
@@ -3757,13 +3733,13 @@
         <v>416913</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>1042</v>
@@ -3772,13 +3748,13 @@
         <v>617361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3769,13 @@
         <v>340114</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>675</v>
@@ -3808,13 +3784,13 @@
         <v>415012</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1072</v>
@@ -3823,13 +3799,13 @@
         <v>755127</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,28 +3873,28 @@
         <v>336030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>509</v>
       </c>
       <c r="I7" s="7">
-        <v>388725</v>
+        <v>388726</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>923</v>
@@ -3927,13 +3903,13 @@
         <v>724756</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3924,13 @@
         <v>1825049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2411</v>
@@ -3963,13 +3939,13 @@
         <v>1860070</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>3988</v>
@@ -3978,13 +3954,13 @@
         <v>3685118</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +3987,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4052,13 +4028,13 @@
         <v>114142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -4067,13 +4043,13 @@
         <v>73303</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>278</v>
@@ -4082,13 +4058,13 @@
         <v>187445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4079,13 @@
         <v>558897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>875</v>
@@ -4118,13 +4094,13 @@
         <v>640583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1407</v>
@@ -4133,13 +4109,13 @@
         <v>1199481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4183,13 @@
         <v>650621</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1387</v>
@@ -4222,13 +4198,13 @@
         <v>878941</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>2243</v>
@@ -4237,13 +4213,13 @@
         <v>1529562</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4234,13 @@
         <v>2724061</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>3961</v>
@@ -4273,13 +4249,13 @@
         <v>2915665</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>6467</v>
@@ -4288,13 +4264,13 @@
         <v>5639726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F943CFF9-62B9-41CA-A9CB-4BFD44C36C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCCDB9FB-B947-44AE-AE3F-2B6DCCE78884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6E9E86-9D2E-4964-A187-897575F6CCF5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5DF25B29-A484-4362-9E4A-5111B0EA5E5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -722,214 +722,214 @@
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>74,27%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC843E3-F40D-41A7-BA73-9074B0D1535B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC6E62B-7626-49F6-86CF-98A116E5C1AA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,7 +1492,7 @@
         <v>701</v>
       </c>
       <c r="N4" s="7">
-        <v>702242</v>
+        <v>702241</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1594,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1698,7 +1698,7 @@
         <v>3003</v>
       </c>
       <c r="N8" s="7">
-        <v>3076602</v>
+        <v>3076601</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1749,7 +1749,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1993,7 +1993,7 @@
         <v>2749</v>
       </c>
       <c r="I14" s="7">
-        <v>2815814</v>
+        <v>2815813</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2044,7 +2044,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2092,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3240B3B6-1355-4F28-A579-F8E9B615CB40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596B9BAB-A0B3-4644-8DBF-E0EFB24B29A5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2693,7 +2693,7 @@
         <v>688</v>
       </c>
       <c r="I13" s="7">
-        <v>741540</v>
+        <v>741541</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>144</v>
@@ -2795,7 +2795,7 @@
         <v>3284</v>
       </c>
       <c r="I15" s="7">
-        <v>3542948</v>
+        <v>3542949</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2843,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F06C34-4E60-4FD7-910A-F9456B50DD08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A2CE84-86ED-45F9-89BC-D549D612A9A5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3355,7 +3355,7 @@
         <v>958</v>
       </c>
       <c r="N11" s="7">
-        <v>1014793</v>
+        <v>1014794</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>206</v>
@@ -3406,7 +3406,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3594,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F561FE16-81CE-4ECB-8264-5CF40BFE6CBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D5686E-8FBB-48B8-A6AF-351E89CDE161}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3715,7 @@
         <v>293</v>
       </c>
       <c r="D4" s="7">
-        <v>200449</v>
+        <v>188107</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3730,7 +3730,7 @@
         <v>749</v>
       </c>
       <c r="I4" s="7">
-        <v>416913</v>
+        <v>375088</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3745,7 +3745,7 @@
         <v>1042</v>
       </c>
       <c r="N4" s="7">
-        <v>617361</v>
+        <v>563194</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -3766,7 +3766,7 @@
         <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>340114</v>
+        <v>325835</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -3781,7 +3781,7 @@
         <v>675</v>
       </c>
       <c r="I5" s="7">
-        <v>415012</v>
+        <v>376974</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -3796,7 +3796,7 @@
         <v>1072</v>
       </c>
       <c r="N5" s="7">
-        <v>755127</v>
+        <v>702810</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -3817,7 +3817,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3832,7 +3832,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3847,7 +3847,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1372488</v>
+        <v>1266004</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3870,7 +3870,7 @@
         <v>414</v>
       </c>
       <c r="D7" s="7">
-        <v>336030</v>
+        <v>314896</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>245</v>
@@ -3885,7 +3885,7 @@
         <v>509</v>
       </c>
       <c r="I7" s="7">
-        <v>388726</v>
+        <v>460172</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>248</v>
@@ -3900,16 +3900,16 @@
         <v>923</v>
       </c>
       <c r="N7" s="7">
-        <v>724756</v>
+        <v>775067</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,46 +3921,46 @@
         <v>1577</v>
       </c>
       <c r="D8" s="7">
-        <v>1825049</v>
+        <v>1974547</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2411</v>
       </c>
       <c r="I8" s="7">
-        <v>1860070</v>
+        <v>1776973</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>3988</v>
       </c>
       <c r="N8" s="7">
-        <v>3685118</v>
+        <v>3751521</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>261</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3972,7 @@
         <v>1991</v>
       </c>
       <c r="D9" s="7">
-        <v>2161079</v>
+        <v>2289443</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3987,7 +3987,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4002,7 +4002,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4409874</v>
+        <v>4526588</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4025,46 +4025,46 @@
         <v>149</v>
       </c>
       <c r="D10" s="7">
-        <v>114142</v>
+        <v>108967</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
       </c>
       <c r="I10" s="7">
-        <v>73303</v>
+        <v>66792</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>278</v>
       </c>
       <c r="N10" s="7">
-        <v>187445</v>
+        <v>175758</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,46 +4076,46 @@
         <v>532</v>
       </c>
       <c r="D11" s="7">
-        <v>558897</v>
+        <v>537656</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>875</v>
       </c>
       <c r="I11" s="7">
-        <v>640583</v>
+        <v>593671</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>1407</v>
       </c>
       <c r="N11" s="7">
-        <v>1199481</v>
+        <v>1131328</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,7 +4127,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4142,7 +4142,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4157,7 +4157,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4180,46 +4180,46 @@
         <v>856</v>
       </c>
       <c r="D13" s="7">
-        <v>650621</v>
+        <v>611969</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>1387</v>
       </c>
       <c r="I13" s="7">
-        <v>878941</v>
+        <v>902051</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M13" s="7">
         <v>2243</v>
       </c>
       <c r="N13" s="7">
-        <v>1529562</v>
+        <v>1514020</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,46 +4231,46 @@
         <v>2506</v>
       </c>
       <c r="D14" s="7">
-        <v>2724061</v>
+        <v>2838039</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>3961</v>
       </c>
       <c r="I14" s="7">
-        <v>2915665</v>
+        <v>2747619</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>6467</v>
       </c>
       <c r="N14" s="7">
-        <v>5639726</v>
+        <v>5585658</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4282,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3374682</v>
+        <v>3450008</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4297,7 +4297,7 @@
         <v>5348</v>
       </c>
       <c r="I15" s="7">
-        <v>3794606</v>
+        <v>3649670</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4312,7 +4312,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7169288</v>
+        <v>7099678</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
